--- a/WebService/Data/Report.xlsx
+++ b/WebService/Data/Report.xlsx
@@ -12,14 +12,35 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>TypeName</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
@@ -32,7 +53,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +61,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium"/>
+      <right style="medium"/>
+      <top style="medium"/>
+      <bottom style="medium"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" borderId="1" applyBorder="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="1" applyFont="1" borderId="1" applyBorder="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -56,11 +90,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.159720420837402" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.884142875671387" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
   <headerFooter/>
 </worksheet>
 </file>
--- a/WebService/Data/Report.xlsx
+++ b/WebService/Data/Report.xlsx
@@ -6,6 +6,7 @@
   </bookViews>
   <sheets>
     <sheet name="ChangedPricesReport" sheetId="1" r:id="rId1"/>
+    <sheet name="ChangedPrices" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -123,4 +124,15 @@
   </sheetData>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/WebService/Data/Report.xlsx
+++ b/WebService/Data/Report.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Id</t>
   </si>
@@ -28,6 +28,30 @@
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>5b6b9f87-e03d-4c54-b70b-1b5ed93741e8</t>
+  </si>
+  <si>
+    <t>дарницкий</t>
+  </si>
+  <si>
+    <t>хлебозавод</t>
+  </si>
+  <si>
+    <t>2,43</t>
+  </si>
+  <si>
+    <t>282c56e0-0aee-4a5c-b968-8a20e3cabe51</t>
+  </si>
+  <si>
+    <t>молоко3</t>
+  </si>
+  <si>
+    <t>игра</t>
+  </si>
+  <si>
+    <t>2,66</t>
   </si>
 </sst>
 </file>
@@ -73,7 +97,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" applyFont="1" borderId="1" applyBorder="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -81,6 +105,7 @@
     <xf numFmtId="4" applyNumberFormat="1" fontId="1" applyFont="1" borderId="1" applyBorder="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" borderId="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -128,11 +153,61 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="37.944122314453125" customWidth="1"/>
+    <col min="2" max="2" width="10.89121150970459" customWidth="1"/>
+    <col min="3" max="3" width="12.884142875671387" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
   <headerFooter/>
 </worksheet>
 </file>
--- a/WebService/Data/Report.xlsx
+++ b/WebService/Data/Report.xlsx
@@ -5,20 +5,16 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="ChangedPricesReport" sheetId="1" r:id="rId1"/>
-    <sheet name="ChangedPrices" sheetId="2" r:id="rId3"/>
+    <sheet name="ChangedPrices" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Id</t>
-  </si>
-  <si>
-    <t>TypeName</t>
   </si>
   <si>
     <t>Name</t>
@@ -30,6 +26,18 @@
     <t>Price</t>
   </si>
   <si>
+    <t>dea29528-56f1-4a7f-8b56-7b8181f17631</t>
+  </si>
+  <si>
+    <t>пшеничный</t>
+  </si>
+  <si>
+    <t>хлебозавод5</t>
+  </si>
+  <si>
+    <t>3,40</t>
+  </si>
+  <si>
     <t>5b6b9f87-e03d-4c54-b70b-1b5ed93741e8</t>
   </si>
   <si>
@@ -39,19 +47,7 @@
     <t>хлебозавод</t>
   </si>
   <si>
-    <t>2,43</t>
-  </si>
-  <si>
-    <t>282c56e0-0aee-4a5c-b968-8a20e3cabe51</t>
-  </si>
-  <si>
-    <t>молоко3</t>
-  </si>
-  <si>
-    <t>игра</t>
-  </si>
-  <si>
-    <t>2,66</t>
+    <t>3,43</t>
   </si>
 </sst>
 </file>
@@ -97,15 +93,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" borderId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" applyFont="1" borderId="1" applyBorder="1" applyProtection="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="1" applyFont="1" borderId="1" applyBorder="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -116,43 +109,6 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.159720420837402" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="12.884142875671387" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -160,51 +116,51 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.944122314453125" customWidth="1"/>
-    <col min="2" max="2" width="10.89121150970459" customWidth="1"/>
+    <col min="2" max="2" width="11.558250427246094" customWidth="1"/>
     <col min="3" max="3" width="12.884142875671387" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
